--- a/data/case1/5/V1_3.xlsx
+++ b/data/case1/5/V1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999482309843</v>
+        <v>0.99999999477235368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99424218088409744</v>
+        <v>0.99432659191773864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97229308974066164</v>
+        <v>0.97259581828992336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96491866903826917</v>
+        <v>0.96243797729675817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95803147138481615</v>
+        <v>0.95267837777738729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94166473620243407</v>
+        <v>0.92922202534380938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93506438205866682</v>
+        <v>0.92261955021444875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92592968938295006</v>
+        <v>0.91348256992667554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.91417805226382387</v>
+        <v>0.90172797308962471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.90334540395785368</v>
+        <v>0.89089337210757358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.90174876438169327</v>
+        <v>0.88929651352782468</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.89896809052429372</v>
+        <v>0.88651545659602393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.88767812530078949</v>
+        <v>0.87522417742248149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.88351010854393275</v>
+        <v>0.87105587931224715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.88091827979080506</v>
+        <v>0.86846391298761894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8784115459227918</v>
+        <v>0.86595708249950554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.87470336536248161</v>
+        <v>0.86224881171565937</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.87359443157659089</v>
+        <v>0.86113987551425109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99113702301084272</v>
+        <v>0.99127875826409428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96575859929479835</v>
+        <v>0.96643503740420278</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95893984965775314</v>
+        <v>0.95972946962965366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.95767532520486132</v>
+        <v>0.95846494650669922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96525739645307951</v>
+        <v>0.96556014514265454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95223560908767368</v>
+        <v>0.95253837637782701</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94577845903763458</v>
+        <v>0.94608122874010014</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94185246581656368</v>
+        <v>0.9279195322337993</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93898253900270445</v>
+        <v>0.92702744212138688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92658826646679149</v>
+        <v>0.92330298032901903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91806349458804826</v>
+        <v>0.92128905272462103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91489124549473244</v>
+        <v>0.92159630045876728</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91580008186623019</v>
+        <v>0.93076181270434666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91708756416248649</v>
+        <v>0.93487631839238583</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91656755047714356</v>
+        <v>0.93435630503346534</v>
       </c>
     </row>
   </sheetData>
